--- a/_Forecast/ProcesamientoDatos/procesos_euristico.xlsx
+++ b/_Forecast/ProcesamientoDatos/procesos_euristico.xlsx
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="8">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>16500</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="10">
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11">
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="12">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1500</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="17">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19">
@@ -751,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="22">
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27">
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -911,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="31">
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33">
@@ -959,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -991,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36">
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>5000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="39">
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="40">
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1135,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45">
